--- a/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造09.xlsx
+++ b/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造09.xlsx
@@ -19,9 +19,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+  <si>
+    <t>フォーマット名CRC</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>u32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造体数</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全構造体の全メンバー数</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンコウゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーマットメジャーバージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーマットマイナーバージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造体定義情報</t>
+    <rPh sb="0" eb="3">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造体メンバー定義情報</t>
+    <rPh sb="0" eb="3">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -36,163 +111,144 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>u8[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キーメンバー名CRC</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>u32</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文字列データ数</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
+    <t>不定長データ情報数</t>
+    <rPh sb="0" eb="2">
+      <t>フテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
       <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文字列データ[n]</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※文字列データ数分続く…</t>
-    <rPh sb="1" eb="4">
-      <t>モジレツ</t>
+    <t>（パディング）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u8[2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本構造体のレコードサイズ</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※１件あたりのデータサイズ</t>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0xdb で埋める</t>
+  </si>
+  <si>
+    <t>不定長データ情報</t>
+    <rPh sb="0" eb="2">
+      <t>フテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(24 + ?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09：構造定義部：T_GDBIN_DECL</t>
+    <rPh sb="3" eb="5">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
     </rPh>
     <rPh sb="7" eb="8">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_GDBIN_DECL::STRUCT[構造体数]</t>
+    <rPh sb="21" eb="23">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
       <t>スウ</t>
     </rPh>
-    <rPh sb="8" eb="9">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_STRING_REF[n]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字列参照データ[n]</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データはCRC値順に並び、バイナリサーチ可能な状態</t>
-    <rPh sb="7" eb="8">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>char[n][]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※文字列は可変長データ</t>
-    <rPh sb="1" eb="4">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>カヘンチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>u8[]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※「識別ID」や「計算式」のような変換して扱うデータの元の文字列を記録しておき、デバッグ時に表示可能にする。</t>
-  </si>
-  <si>
-    <t>文字列の実データ位置のオフセット　※デバッグデータ部のトップからのオフセット</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ジツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字列CRC値</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実データオフセット</t>
-    <rPh sb="0" eb="1">
-      <t>ジツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 + ?)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字列のCRC値　※検索／重複定義検出用</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ケンシュツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>09：デバッグデータ部</t>
-    <rPh sb="10" eb="11">
-      <t>ブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_GDBIN_DECL::STRUCT::MEMBER[全構造体の全メンバー数]</t>
+    <rPh sb="29" eb="30">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_GDBIN_DECL::VARIABLE_DATA_INFO[不定長データ情報数]</t>
+    <rPh sb="33" eb="35">
+      <t>フテイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -201,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,14 +275,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -259,14 +307,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -281,12 +321,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -295,60 +335,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -473,6 +459,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -511,6 +521,19 @@
         <color auto="1"/>
       </top>
       <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -672,65 +695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -746,7 +710,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="hair">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -755,18 +719,20 @@
     <border>
       <left/>
       <right/>
-      <top style="hair">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -774,9 +740,24 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -787,168 +768,156 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,184 +1202,270 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="32.125" style="7" customWidth="1"/>
+    <col min="1" max="3" width="2.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.125" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A2" s="33"/>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>4</v>
+      </c>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2</v>
+      </c>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="21">
+        <v>2</v>
+      </c>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A5" s="33"/>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A7" s="33"/>
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="21">
+        <v>2</v>
+      </c>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A8" s="33"/>
+      <c r="B8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="49">
+        <v>2</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="52" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10">
+        <v>4</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="21">
+        <v>4</v>
+      </c>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="14">
-        <v>4</v>
-      </c>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
-        <v>4</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17">
-        <v>4</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5" t="s">
+      <c r="G14" s="48"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29" t="s">
+      <c r="F17" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
-      <c r="B10" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="41"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
